--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656BE13E-0081-44DE-B508-564665D9BB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266479E2-10AF-4219-B3A6-6F82A189728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="1799">
   <si>
     <t>producto</t>
   </si>
@@ -9112,6 +9112,9 @@
   </si>
   <si>
     <t>CISCO HWIC-2T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAP AC HD </t>
   </si>
 </sst>
 </file>
@@ -9494,7 +9497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9814,10 +9817,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10276,8 +10275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="B543" sqref="B543"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19466,119 +19465,121 @@
       </c>
     </row>
     <row r="541" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="117" t="s">
+      <c r="A541" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="B541" s="118" t="s">
+      <c r="B541" s="116" t="s">
         <v>1784</v>
       </c>
-      <c r="C541" s="117" t="s">
+      <c r="C541" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D541" s="117">
+      <c r="D541" s="1">
         <v>9</v>
       </c>
-      <c r="E541" s="117" t="s">
+      <c r="E541" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A542" s="117" t="s">
+      <c r="A542" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="B542" s="118" t="s">
+      <c r="B542" s="116" t="s">
         <v>1785</v>
       </c>
-      <c r="C542" s="117" t="s">
+      <c r="C542" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="D542" s="117">
-        <v>1</v>
-      </c>
-      <c r="E542" s="117" t="s">
+      <c r="D542" s="1">
+        <v>1</v>
+      </c>
+      <c r="E542" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A543" s="117" t="s">
+      <c r="A543" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="B543" s="118" t="s">
+      <c r="B543" s="116" t="s">
         <v>1786</v>
       </c>
-      <c r="C543" s="117" t="s">
+      <c r="C543" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="D543" s="117">
-        <v>1</v>
-      </c>
-      <c r="E543" s="117" t="s">
+      <c r="D543" s="1">
+        <v>1</v>
+      </c>
+      <c r="E543" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="117"/>
-      <c r="B544" s="118" t="s">
+      <c r="A544" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B544" s="116" t="s">
         <v>1787</v>
       </c>
-      <c r="C544" s="117" t="s">
+      <c r="C544" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="D544" s="117">
+      <c r="D544" s="1">
         <v>2</v>
       </c>
-      <c r="E544" s="117" t="s">
+      <c r="E544" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A545" s="117" t="s">
+      <c r="A545" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="B545" s="118" t="s">
+      <c r="B545" s="116" t="s">
         <v>1788</v>
       </c>
-      <c r="C545" s="117" t="s">
+      <c r="C545" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="D545" s="117">
-        <v>1</v>
-      </c>
-      <c r="E545" s="117" t="s">
+      <c r="D545" s="1">
+        <v>1</v>
+      </c>
+      <c r="E545" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="117" t="s">
+      <c r="A546" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="B546" s="118" t="s">
+      <c r="B546" s="116" t="s">
         <v>1789</v>
       </c>
-      <c r="C546" s="117" t="s">
+      <c r="C546" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D546" s="117">
-        <v>1</v>
-      </c>
-      <c r="E546" s="117" t="s">
+      <c r="D546" s="1">
+        <v>1</v>
+      </c>
+      <c r="E546" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="117" t="s">
+      <c r="A547" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="B547" s="118" t="s">
+      <c r="B547" s="116" t="s">
         <v>1797</v>
       </c>
-      <c r="C547" s="117" t="s">
+      <c r="C547" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="D547" s="117">
+      <c r="D547" s="1">
         <v>4</v>
       </c>
-      <c r="E547" s="117" t="s">
+      <c r="E547" s="1" t="s">
         <v>1790</v>
       </c>
     </row>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266479E2-10AF-4219-B3A6-6F82A189728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E3342-840A-4BC1-A656-E34425529482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="1798">
   <si>
     <t>producto</t>
   </si>
@@ -9064,9 +9064,6 @@
   </si>
   <si>
     <t>jcordoba@silicon-tech.com.ar</t>
-  </si>
-  <si>
-    <t>HEWLETT PACKARD HP</t>
   </si>
   <si>
     <t>UBIQUITI</t>
@@ -10275,8 +10272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19466,10 +19463,10 @@
     </row>
     <row r="541" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B541" s="116" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>822</v>
@@ -19478,15 +19475,15 @@
         <v>9</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B542" s="116" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>1710</v>
@@ -19495,66 +19492,66 @@
         <v>1</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B543" s="116" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1782</v>
+        <v>806</v>
       </c>
       <c r="D543" s="1">
         <v>1</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B544" s="116" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D544" s="1">
         <v>2</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B545" s="116" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D545" s="1">
         <v>1</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B546" s="116" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>838</v>
@@ -19563,15 +19560,15 @@
         <v>1</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B547" s="116" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>1717</v>
@@ -19580,7 +19577,7 @@
         <v>4</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
   </sheetData>
